--- a/Mod_Korean/Lang/KR/Dialog/Drama/elder_exile.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/Drama/elder_exile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -72,6 +72,38 @@
     <t xml:space="preserve">#race crosses the barrier and enters our village…?
 So, it must be that young one’s idea. Keh keh keh... I see. That one has  indeed no use for the bracelet anymore. Even our great father has forsaken him.
 Still, a secluded village like this isn’t entirely free from trouble now and then. If you prove useful to us, we might just turn a blind eye.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">#race이(가) 결계를 넘어서 이 마을에…?
+그렇군, 그 애송이가 지혜를 빌려줬군. 키키키</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">… 확실히, 그 자에게 「팔찌」는 이제 필요가 없지. 주님 이츠파로틀께조차 버림을 받았으니 말이야.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+뭐, 속세와는 연이 없는 이 마을에도 귀찮은 일이 아주 없는 것은 아니지. 우리에게 도움이 된다면, 이 일은 눈감아 주마.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">inject</t>
@@ -93,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -105,19 +137,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="128"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="128"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="128"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -131,6 +163,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -409,7 +447,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -423,7 +461,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="7.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="60.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="53.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="44.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -480,7 +518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="89.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I8" s="1" t="n">
         <v>1</v>
       </c>
@@ -489,6 +527,9 @@
       </c>
       <c r="K8" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,20 +538,20 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Dialog/Drama/elder_exile.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/Drama/elder_exile.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <workbookPr autoCompressPictures="1"/>
+  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="raphael" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="raphael" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -69,53 +69,29 @@
 まあ、世俗とは無縁のこの村とて、面倒ごとの一つや二つ、ないわけではない。我らの役に立つというのなら、見逃してやろう。</t>
   </si>
   <si>
-    <t xml:space="preserve">#race crosses the barrier and enters our village…?
+    <t xml:space="preserve">A #race crosses the barrier and enters our village...?
 So, it must be that young one’s idea. Keh keh keh... I see. That one has  indeed no use for the bracelet anymore. Even our great father has forsaken him.
 Still, a secluded village like this isn’t entirely free from trouble now and then. If you prove useful to us, we might just turn a blind eye.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">#race이(가) 결계를 넘어서 이 마을에…?
-그렇군, 그 애송이가 지혜를 빌려줬군. 키키키</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">… 확실히, 그 자에게 「팔찌」는 이제 필요가 없지. 주님 이츠파로틀께조차 버림을 받았으니 말이야.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">inject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice/bye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">#race이(가) 결계를 넘어서 이 마을에…?
+그렇군, 그 애송이가 지혜를 빌려줬군. 키키키… 확실히, 그 자에게 「팔찌」는 이제 필요가 없지. 주님 이츠파로틀께조차 버림을 받았으니 말이야.
 뭐, 속세와는 연이 없는 이 마을에도 귀찮은 일이 아주 없는 것은 아니지. 우리에게 도움이 된다면, 이 일은 눈감아 주마.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">inject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice/bye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancel</t>
   </si>
 </sst>
 </file>
@@ -125,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -136,20 +112,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -163,12 +139,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="MS UI Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -186,7 +156,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -195,54 +165,54 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -256,13 +226,13 @@
   <dxfs count="1">
     <dxf>
       <font>
+        <color rgb="FFCC0000"/>
         <name val="游ゴシック"/>
+        <family val="2"/>
         <charset val="128"/>
-        <family val="2"/>
-        <color rgb="FFCC0000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
@@ -438,33 +408,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="7.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="60.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="53.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="44.6"/>
+    <col min="1" max="1" width="8.85" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.85" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85" style="1" customWidth="1"/>
+    <col min="8" max="9" width="7.09" style="1" customWidth="1"/>
+    <col min="10" max="10" width="60.76" style="1" customWidth="1"/>
+    <col min="11" max="11" width="53.28" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.06" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="12.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,24 +472,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I2" s="1" t="n">
-        <f aca="false">MAX(I4:I1048576)</f>
+    <row r="2" ht="12.8">
+      <c r="I2" s="1">
+        <f>MAX(I4:I1048576)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="12.8">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="12.8">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I8" s="1" t="n">
+    <row r="8" ht="89.55">
+      <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -528,40 +498,40 @@
       <c r="K8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="12.8">
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" ht="12.8">
       <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="1" t="s">
+    </row>
+    <row r="11" ht="12.8">
+      <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="1" t="s">
+    <row r="12" ht="12.8">
+      <c r="E12" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I4:I1048576">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter>
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/Mod_Korean/Lang/KR/Dialog/Drama/elder_exile.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/Drama/elder_exile.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr autoCompressPictures="1"/>
-  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="raphael" sheetId="1" r:id="rId3"/>
+    <sheet name="raphael" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
-    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -74,24 +74,21 @@
 Still, a secluded village like this isn’t entirely free from trouble now and then. If you prove useful to us, we might just turn a blind eye.</t>
   </si>
   <si>
-    <t xml:space="preserve">inject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice/bye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">#race이(가) 결계를 넘어서 이 마을에…?
+    <t xml:space="preserve">#race? 결계를 넘어서 이 마을에…?
 그렇군, 그 애송이가 지혜를 빌려줬군. 키키키… 확실히, 그 자에게 「팔찌」는 이제 필요가 없지. 주님 이츠파로틀께조차 버림을 받았으니 말이야.
 뭐, 속세와는 연이 없는 이 마을에도 귀찮은 일이 아주 없는 것은 아니지. 우리에게 도움이 된다면, 이 일은 눈감아 주마.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice/bye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancel</t>
   </si>
 </sst>
 </file>
@@ -112,20 +109,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -156,7 +153,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -165,54 +162,58 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -226,13 +227,13 @@
   <dxfs count="1">
     <dxf>
       <font>
+        <name val="游ゴシック"/>
+        <charset val="128"/>
+        <family val="2"/>
         <color rgb="FFCC0000"/>
-        <name val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
@@ -408,33 +409,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11.85" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85" style="1" customWidth="1"/>
-    <col min="8" max="9" width="7.09" style="1" customWidth="1"/>
-    <col min="10" max="10" width="60.76" style="1" customWidth="1"/>
-    <col min="11" max="11" width="53.28" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.06" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="7.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="60.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="53.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.06"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,24 +473,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
-      <c r="I2" s="1">
-        <f>MAX(I4:I1048576)</f>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="1" t="n">
+        <f aca="false">MAX(I4:I1048576)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="12.8">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="12.8">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="89.55">
-      <c r="I8" s="1">
+    <row r="8" customFormat="false" ht="89.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -498,40 +499,40 @@
       <c r="K8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" ht="12.8">
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" ht="12.8">
+      <c r="L8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" ht="12.8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" ht="12.8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I4:I1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/Mod_Korean/Lang/KR/Dialog/Drama/elder_exile.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/Drama/elder_exile.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <workbookPr autoCompressPictures="1"/>
+  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="raphael" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="raphael" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -74,21 +74,24 @@
 Still, a secluded village like this isn’t entirely free from trouble now and then. If you prove useful to us, we might just turn a blind eye.</t>
   </si>
   <si>
+    <t xml:space="preserve">inject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice/bye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
     <t xml:space="preserve">#race? 결계를 넘어서 이 마을에…?
 그렇군, 그 애송이가 지혜를 빌려줬군. 키키키… 확실히, 그 자에게 「팔찌」는 이제 필요가 없지. 주님 이츠파로틀께조차 버림을 받았으니 말이야.
 뭐, 속세와는 연이 없는 이 마을에도 귀찮은 일이 아주 없는 것은 아니지. 우리에게 도움이 된다면, 이 일은 눈감아 주마.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice/bye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancel</t>
   </si>
 </sst>
 </file>
@@ -109,20 +112,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -153,7 +156,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -162,58 +165,54 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="6">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -227,13 +226,13 @@
   <dxfs count="1">
     <dxf>
       <font>
+        <color rgb="FFCC0000"/>
         <name val="游ゴシック"/>
+        <family val="2"/>
         <charset val="128"/>
-        <family val="2"/>
-        <color rgb="FFCC0000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
@@ -409,33 +408,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="7.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="60.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="53.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.06"/>
+    <col min="1" max="1" width="8.85" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.85" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85" style="1" customWidth="1"/>
+    <col min="8" max="9" width="7.09" style="1" customWidth="1"/>
+    <col min="10" max="10" width="60.76" style="1" customWidth="1"/>
+    <col min="11" max="11" width="53.28" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.06" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="12.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,24 +472,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I2" s="1" t="n">
-        <f aca="false">MAX(I4:I1048576)</f>
+    <row r="2" ht="12.8">
+      <c r="I2" s="1">
+        <f>MAX(I4:I1048576)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="12.8">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="12.8">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="89.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I8" s="1" t="n">
+    <row r="8" ht="89.55">
+      <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -499,40 +498,40 @@
       <c r="K8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="12.8">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" ht="12.8">
+      <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="1" t="s">
+    </row>
+    <row r="11" ht="12.8">
+      <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="1" t="s">
+    <row r="12" ht="12.8">
+      <c r="E12" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I4:I1048576">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter>
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/Mod_Korean/Lang/KR/Dialog/Drama/elder_exile.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/Drama/elder_exile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="126">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -69,9 +69,84 @@
 まあ、世俗とは無縁のこの村とて、面倒ごとの一つや二つ、ないわけではない。我らの役に立つというのなら、見逃してやろう。</t>
   </si>
   <si>
-    <t xml:space="preserve">A #race crosses the barrier and enters our village...?
-So, it must be that young one’s idea. Keh keh keh... I see. That one has  indeed no use for the bracelet anymore. Even our great father has forsaken him.
-Still, a secluded village like this isn’t entirely free from trouble now and then. If you prove useful to us, we might just turn a blind eye.</t>
+    <t xml:space="preserve">A #race crossing the barrier and entering this village...?
+So, it must be that young one’s doing. Keh keh keh... Aye, the bracelet is of no more use to him. Even our master Itzpalt hath cast him aside.
+Though this village is far from the world of men, we are not free from trouble. If thou wouldst serve our purpose, we may turn a blind eye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=,*negotiation_darkness,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イスシズルを知っているか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you know of Issizzle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=,*negotiation_darkness,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;=,duponne_rescue,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デュポンヌを発見したが…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I found Duponne, but...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_found2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=,duponne_rescue,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミノタウロスの角について</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About the Great Horn of Minotaur...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_rescue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_rescued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デュポンヌを連れて帰った</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I brought back Duponne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_kill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_killed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デュポンヌを始末した</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have slain Duponne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_gone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デュポンヌはどこかへ行ってしまった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duponne is gone forever.</t>
   </si>
   <si>
     <t xml:space="preserve">inject</t>
@@ -84,6 +159,308 @@
   </si>
   <si>
     <t xml:space="preserve">cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇の奇形「イスシズル」。キキキ…その名を知らぬ者が、この村にいようか？
+不浄なる存在に魂を貶める前は、神に最も近しき魔術師とも謳われた者よ。
+厄介な敵を持ったものだ。いかに我らといえど、彼奴に対抗できるほどの使い手はおらぬ。仮にいたとしても、世の騒ぎには関与すまい。追放者というものは、つまるところ、己の贖罪にしか興味がないのだからな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The dark abomination, Issizzle. Keh keh keh... Who here could claim ignorance of that name?
+Before he debased his soul with unclean flesh, he was hailed as the sorcerer closest to the gods.
+A troublesome foe indeed. Not even among us is there one strong enough to oppose him. And if such a one did exist, he would still not stoop to the quarrels of the world. For an exile is bound solely to his own atonement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キキキ…だが…待て待て、汝のような冒険者にふさわしい仕事が、ちょうど一つあるのだ。首尾よくこなせば、汝が求める「知識」を授けよう。我らが古代より受け継ぐ秘術のレシピ、イスシズルを退ける刃となるやも知れぬ力だ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keh keh keh... Yet wait, adventurer. There is one task most fitting for thee. Shouldst thou succeed, I shall grant thee knowledge—an ancient recipe passed down from of old. A secret craft that may forge a blade against Issizzle himself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キキキ…さて、どこから話すべきか。
+この村の南東にルーリエという神殿があるのを、汝は知っているか？　神々が地上から去り、今はもう海の底に沈んだ哀しきルーリエ…その神殿で、我は暮らしていたのだ。かつて、まだ人間だった頃な。
+神殿には、どこからか迷い混んだ大食いトドの子が一匹いて、我になついていた。名はデュポンヌといい、愚かしいほど食い意地の張ったやつだったが…キキキ…あの鈍重で愛らしい獣に、我は奇妙なほど情を注いでいたものだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keh keh keh... Now, where to begin?
+Dost thou know of the temple called Lurie, southeast of this village? When the gods departed this world, the shrine sank beneath the sea. There I once dwelt, in the days when I was still mortal.
+A hungry sea-lion pup strayed within its halls. She clung to me, aye. Her name was Duponne. Foolish, greedy thing... keh keh keh... Yet I grew strangely fond of that slow, endearing beast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">やがて我は死に、生前の罪ゆえに、この村で果てなき贖罪を続ける定めとなった。もう幾千年も昔のことだ。
+あれから実に長い年月が過ぎた。だが、不思議なことに…おお、今になってなお、我は感じるのだ！ デュポンヌが生きている気配を！
+キキキ…我には聞こえるのだよ、海の底に忘れられた、あの子の悲しい鳴き声が。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In time I died, and for the sins of my life was bound to endless penance in this village. That was thousands of years ago.
+Ages have drifted by then, indeed. Yet strangely... even now, I feel it! The presence of Duponne, still alive! 
+Keh keh keh... I hear it clearly... the sorrowful cry of that child, forgotten in the deep sea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…汝には、深き水底の檻から、デュポンヌを連れ戻して欲しいのだ。
+果たしてあの子がまだトドのままなのか、あるいは何かしらの化け物へと変じてしまったのか…それは分からぬ。もし救うことが叶わぬならば、悲しき獣に永遠の安らぎを与えてやってくれ。それが我の望みだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...I ask thee, bring Duponne forth from her prison beneath the waves.
+Whether she remains the sea-lion she once was, or hath become some dreadful monster, I cannot say. If she cannot be saved, then grant the poor beast eternal rest. That is my wish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キキキ…それにしても、よくよく愚かな子だ。数千年も生き抜く力があるのなら、なぜあのような廃墟に…キキキ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keh keh keh... Still the same foolish child. To have the power to live for millennia, and yet dwell in such a ruin... keh keh keh...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nextPhase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negotiation_darkness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デュポンヌが巨大な竜に…？
+なんとも奇怪な…あれは確かに大食いトドの子だった。いや…人間の頃の記憶は、とかく薄れやすいものだ。
+ともかく、そのような巨体ともなれば、引きずって連れて帰るわけにもいかぬだろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duponne, grown into a dragon...? 
+How bizarre... I recall her as naught but a hungry sea-lion pup. Yet mortal memories do fade swiftly.
+In any case, with such a vast form, thou couldst hardly drag her back here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setFlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_rescue,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_found2b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_found3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_mino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古の魔道具、「竜の捕獲玉」を用いれば、あるいはデュポンヌを捕らえることができるやも知れぬ。
+だが…キキキ…あいにくと、この道具を作るための材料が、この村には不足しているのだ。
+「ミノタウロスの大角」と呼ばれる希少な素材だが…そういえば、ヨウィンの南あたりで、ミノタウロスの群れが巣を作っていたな、キキキ…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">If one were to use the ancient device known as the Dragon Orb, perchance Duponne might be bound.
+But... keh keh keh... the ingredients to fashion such a tool are wanting in this village. Aye, the rare ingredient called the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> Great Horn of Minotaur.
+...Although, I seem to remember a herd of minotaurs dwelling south of Yowyn, keh keh keh...</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">おお、汝が持っているのは「ミノタウロスの大角」ではないか？
+キキキ…これでデュポンヌを連れて帰るための捕獲玉が作れるぞ。
+捕獲玉の使い方は、冒険者の汝には説明する必要もなかろう。キキキ…そう、手に持って、相手に投げるだけだからな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ah! Thou bearest the Great Horn of Minotaur!
+With this ingredient, the orb to bring Duponne back may be forged.
+...Its use? Surely an adventurer like thee needeth no lesson. Keh keh keh... aye, simply hold it, and cast it at the beast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_rescue,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デュポンヌは…そうか…汝がそう判断したというなら、何も言うまい。
+海の底で幾千年もの時を、いったい何があの子をルーリエの廃墟に留めていたのか…いや、今更詮索しても意味のないことだ。キキキ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duponne... I see. If such was thy judgment, I shall say no more. 
+What kept her to the sunken ruins for ages beyond count... nay, to seek the answer now is folly. Keh keh keh... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">キキキ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keh keh keh... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_reward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…心配は無用だ。汝との約束を忘れはせぬ。
+古より伝わる秘術のレシピを汝に授けん。ルーン鋳造…人の世から久しく失われた、貴重な知識だ。イスシズルとの戦いにおいて、必ずや汝の助けとなろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Worry not. The promise I made to thee I shall not forsake. 
+I shall grant thee a recipe of ancient sorcery—Rune Forging, a knowledge long lost to men. In thy battle with Issizzle, it shall surely serve thee well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…汝との取引は成った。さあ、立ち去るがよい、キキキ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our bargain is fulfilled. Now begone, adventurer. Keh keh keh...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…デュポンヌ！　デュポンヌなのか！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Duponne! Is it truly thee!?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warcry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lurie_boss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グウォオオォォオオン！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROOOOAAARRRR!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おお、なんという恐ろしい咆哮！ 我を食おうとしているのか…？ 
+キキキ…そうだろう。我のことなど覚えてはいまいな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ah, what a dreadful roar! Dost thou mean to devour me?
+Keh keh keh... Aye, I suppose thou rememberest me not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グウォオオォォオオォォォォォン！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROOOOAAAOOOONNNNN!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…しかし、お主が竜だったとは。
+いや、その元気な姿を再び見れただけで、我は満足だよ。このしわがれた命などおしくもない。さあ、お主の好きにするがいい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Thou wert a dragon all along.
+Still, to behold thee alive once more is enough for me. This withered life I do not prize. Do as thou wilt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グウォオオ…グルルゥ……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRRRRUUUUMMM... WHIIINE...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デュポンヌ…？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duponne...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グルゥゥ……クゥン……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIIINE... WHIIIIIINE...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デュポンヌ、まさかお主、我がわかるのか？
+ハッ…！　その首のリボンは、人間だった頃にふざけてお主に着けた…
+お主、そんなものをまだ大事そうに…？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What, Duponne... can it be, thou rememberest me?
+Ah...! That ribbon round thy neck! ’tis the very one I fastened upon thee in jest, long, long ago.
+And thou hast cherished it all these years...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クゥゥン…クゥゥウン…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIIINE... WHIMPER...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デュポンヌ、そうか…そうか、キキキ…
+…我はお主を海の底に置き去りにし、果てなき贖罪に囚われていた。だが、数千年の時を経ても、お主は我を見捨てはせなんだのだな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duponne... so it is... so it is. Keh keh keh...
+I left thee in the ocean’s depths, bound myself to endless penance. Yet even after thousands of years, thou hast not forsaken me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クゥン……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIMPER... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">…愚かな我を、赦してくれ、デュポンヌ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forgive me, Duponne... Forgive this foolish soul of mine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クゥゥン……ウォオオオオン……！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIIIINE... GROOOOANNN...!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おお、デュポンヌ…！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, Duponne...!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…キキキ、心配は無用だ。汝との約束を忘れてはおらぬ。
+古より伝わる秘術のレシピを汝に授けよう。ルーン鋳造…人の世から久しく失われた、貴重な知識だ。イスシズルとの戦いにおいて、必ずや助けとなろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keh keh keh... Worry not. The promise I made to thee I shall not forsake. 
+I shall grant thee a recipe of ancient sorcery—Rune Forging, a knowledge long lost to men. In thy battle with Issizzle, it shall surely serve thee well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さて、デュポンヌよ、早速村の皆にお主を紹介せねばならぬな！
+キキキ…怖がらなくてもいい。不気味な顔をしているが、悪い者たちではない。お主なら、きっと村の人気者になるだろう。
+さあ、デュポンヌ、こっちにおいで。共に生きようではないか…また、ルーリエでの、あの頃のように…キキキ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now then, Duponne, we must show thee to the village folk!
+Keh keh keh... Do not fear. Their faces are grim, but they mean thee no harm. Thou shalt become a favorite among them, I think.
+Come now, Duponne, come hither. Let us live together once more... as we did in those days at Lurie. Keh keh keh...</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -101,7 +478,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -140,6 +517,26 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -164,7 +561,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection locked="1"/>
@@ -188,8 +585,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment/>
       <protection locked="1"/>
@@ -214,14 +615,43 @@
       <alignment/>
       <protection locked="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Excel Built-in Normal" xfId="20" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -412,17 +842,17 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" width="8.85" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.55" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.85" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.28" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.85" style="1" customWidth="1"/>
@@ -475,7 +905,7 @@
     <row r="2" ht="12.8">
       <c r="I2" s="1">
         <f>MAX(I4:I1048576)</f>
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="12.8">
@@ -488,7 +918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="89.55">
+    <row r="8" ht="79.85">
       <c r="I8" s="1">
         <v>1</v>
       </c>
@@ -499,7 +929,7 @@
         <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" ht="12.8">
@@ -507,26 +937,775 @@
       <c r="K9" s="5"/>
     </row>
     <row r="10" ht="12.8">
-      <c r="E10" s="1" t="s">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" ht="12.8">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" ht="12.8">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" ht="12.8">
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" ht="12.8">
-      <c r="E12" s="1" t="s">
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="K12" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="12.8">
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="12.8">
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" ht="12.8">
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1">
+        <v>5</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" ht="12.8">
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1">
+        <v>6</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" ht="12.8">
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="1">
+        <v>7</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" ht="12.8">
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" ht="12.8">
+      <c r="E19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" ht="12.8">
+      <c r="E21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" ht="12.8">
+      <c r="E22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" ht="12.8">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="113.4">
+      <c r="I27" s="1">
+        <v>8</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" ht="13.8">
+      <c r="I28" s="1">
+        <v>9</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" ht="113.4">
+      <c r="J29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" ht="91">
+      <c r="I30" s="1">
+        <v>10</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" ht="68.65">
+      <c r="I31" s="1">
+        <v>11</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" ht="23.85">
+      <c r="I32" s="1">
+        <v>12</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" ht="12.8">
+      <c r="E33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" ht="12.8">
+      <c r="E36" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" ht="12.8">
+      <c r="A38" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" ht="79.85">
+      <c r="I40" s="1">
+        <v>13</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" ht="12.8">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" ht="12.8">
+      <c r="E42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" ht="12.8">
+      <c r="B43" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" ht="12.8">
+      <c r="A46" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" ht="12.8">
+      <c r="B47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" ht="12.8">
+      <c r="A48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" ht="98.5">
+      <c r="I49" s="1">
+        <v>14</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" ht="12.8">
+      <c r="E51" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" ht="12.8">
+      <c r="A53" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" ht="74.6">
+      <c r="I55" s="1">
+        <v>15</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" ht="12.8">
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" ht="12.8">
+      <c r="E57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" ht="12.8">
+      <c r="E58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" ht="12.8">
+      <c r="E59" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" ht="12.8">
+      <c r="A63" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" ht="46.25">
+      <c r="I65" s="1">
+        <v>16</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" ht="13.8">
+      <c r="I66" s="1">
+        <v>17</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" ht="13.8">
+      <c r="I67" s="1">
+        <v>18</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" ht="12.8">
+      <c r="E68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" ht="57.45">
+      <c r="I69" s="1">
+        <v>19</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" ht="13.8">
+      <c r="I70" s="1">
+        <v>20</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" ht="12.8">
+      <c r="E71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" ht="13.8">
+      <c r="J72" s="9"/>
+    </row>
+    <row r="73" ht="12.8">
+      <c r="E73" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" ht="12.8">
+      <c r="A75" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" ht="13.8">
+      <c r="I77" s="1">
+        <v>21</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" ht="13.8">
+      <c r="E78" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J78" s="9"/>
+      <c r="K78" s="5"/>
+    </row>
+    <row r="79" ht="13.8">
+      <c r="G79" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I79" s="1">
+        <v>22</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" ht="35.05">
+      <c r="I80" s="1">
+        <v>23</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" ht="12.8">
+      <c r="E81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" ht="13.8">
+      <c r="G82" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I82" s="1">
+        <v>24</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" ht="46.25">
+      <c r="G83" s="11"/>
+      <c r="I83" s="1">
+        <v>25</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" ht="13.8">
+      <c r="G84" s="11"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="5"/>
+    </row>
+    <row r="85" ht="13.8">
+      <c r="G85" s="11"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="5"/>
+    </row>
+    <row r="86" ht="13.8">
+      <c r="G86" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I86" s="1">
+        <v>26</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" ht="13.8">
+      <c r="G87" s="11"/>
+      <c r="I87" s="1">
+        <v>27</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" ht="13.8">
+      <c r="G88" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I88" s="1">
+        <v>28</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" ht="68.65">
+      <c r="G89" s="11"/>
+      <c r="I89" s="1">
+        <v>29</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" ht="13.8">
+      <c r="G90" s="11"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="5"/>
+    </row>
+    <row r="91" ht="13.8">
+      <c r="G91" s="11"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="5"/>
+    </row>
+    <row r="92" ht="12.8">
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+    </row>
+    <row r="93" ht="12.8">
+      <c r="E93" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F93" s="1">
+        <v>12</v>
+      </c>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+    </row>
+    <row r="94" ht="13.8">
+      <c r="G94" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I94" s="1">
+        <v>30</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" ht="53.7">
+      <c r="I95" s="1">
+        <v>31</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" ht="13.8">
+      <c r="G96" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I96" s="1">
+        <v>32</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" ht="13.8">
+      <c r="I97" s="1">
+        <v>33</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" ht="13.8">
+      <c r="E98" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J98" s="9"/>
+      <c r="K98" s="5"/>
+    </row>
+    <row r="99" ht="13.8">
+      <c r="G99" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I99" s="1">
+        <v>34</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" ht="13.8">
+      <c r="I100" s="1">
+        <v>35</v>
+      </c>
+      <c r="J100" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" ht="13.8">
+      <c r="G101" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I101" s="1">
+        <v>36</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" ht="13.8">
+      <c r="I102" s="1">
+        <v>37</v>
+      </c>
+      <c r="J102" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" ht="13.8">
+      <c r="E103" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J103" s="12"/>
+    </row>
+    <row r="104" ht="64.15">
+      <c r="I104" s="1">
+        <v>38</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K104" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" ht="13.8">
+      <c r="J105" s="12"/>
+      <c r="K105" s="5"/>
+    </row>
+    <row r="106" ht="85.05">
+      <c r="I106" s="1">
+        <v>39</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" ht="13.8">
+      <c r="E107" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J107" s="12"/>
+    </row>
+    <row r="108" ht="13.8">
+      <c r="E108" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J108" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I4:I1048576">
+  <conditionalFormatting sqref="I4:I11 I21:I26 I19 I33:I39 I56:I64 I71:I76 I41:I54 I68 I103 I106:I1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I32 I40 I69:I70 I104:I105 I12:I18 I55 I65:I67 I77:I102">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
